--- a/data/data_output.xlsx
+++ b/data/data_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
   <si>
     <t>Day</t>
   </si>
@@ -37,16 +37,13 @@
     <t>吉田</t>
   </si>
   <si>
-    <t>山本</t>
-  </si>
-  <si>
     <t>中村</t>
   </si>
   <si>
     <t>山田</t>
   </si>
   <si>
-    <t>和田</t>
+    <t>加藤</t>
   </si>
 </sst>
 </file>
@@ -445,13 +442,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -459,7 +456,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -487,7 +484,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -504,10 +501,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -515,13 +512,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -529,13 +526,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_output.xlsx
+++ b/data/data_output.xlsx
@@ -14,36 +14,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>Day</t>
   </si>
   <si>
+    <t>血圧</t>
+  </si>
+  <si>
+    <t>採血</t>
+  </si>
+  <si>
     <t>受付</t>
   </si>
   <si>
-    <t>採血</t>
-  </si>
-  <si>
-    <t>血圧</t>
+    <t>胃カメラ</t>
+  </si>
+  <si>
+    <t>田中, 中村</t>
+  </si>
+  <si>
+    <t>齋藤, 山田, 佐藤, 加藤</t>
+  </si>
+  <si>
+    <t>和田</t>
+  </si>
+  <si>
+    <t>山本</t>
+  </si>
+  <si>
+    <t>齋藤, 山田, 小林, メディカル</t>
+  </si>
+  <si>
+    <t>吉田</t>
+  </si>
+  <si>
+    <t>齋藤, 田中</t>
+  </si>
+  <si>
+    <t>山田, 小林, 加藤, メディカル</t>
   </si>
   <si>
     <t>佐藤</t>
   </si>
   <si>
+    <t>中村, メディカル</t>
+  </si>
+  <si>
+    <t>佐藤, 小林, 山本, メディカル</t>
+  </si>
+  <si>
+    <t>山田, 小林, メディカル, 外来不足</t>
+  </si>
+  <si>
+    <t>メディカル</t>
+  </si>
+  <si>
+    <t>山田, 佐藤, 小林, 加藤</t>
+  </si>
+  <si>
+    <t>中村, 吉田</t>
+  </si>
+  <si>
+    <t>齋藤, 佐藤, 加藤, メディカル</t>
+  </si>
+  <si>
     <t>小林</t>
   </si>
   <si>
-    <t>吉田</t>
-  </si>
-  <si>
-    <t>中村</t>
-  </si>
-  <si>
-    <t>山田</t>
-  </si>
-  <si>
-    <t>加藤</t>
+    <t>齋藤, 山田, 加藤, メディカル</t>
+  </si>
+  <si>
+    <t>齋藤, 佐藤, 小林, 山本</t>
   </si>
 </sst>
 </file>
@@ -375,13 +417,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,145 +436,178 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
